--- a/PopulismSCA_Tables_Latex.xlsx
+++ b/PopulismSCA_Tables_Latex.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/populism-sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20FA4763-49A2-3D47-BECC-6204AEC2812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFD41D-8768-5943-B855-D79B8E0E6601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{4C8A1D19-DDE7-C645-8B0B-3B8FC645842F}"/>
+    <workbookView xWindow="18300" yWindow="-20600" windowWidth="38400" windowHeight="19400" xr2:uid="{4C8A1D19-DDE7-C645-8B0B-3B8FC645842F}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="Predictor Balance" sheetId="2" r:id="rId2"/>
-    <sheet name="P-vals" sheetId="3" r:id="rId3"/>
-    <sheet name="R-Argentina" sheetId="4" r:id="rId4"/>
-    <sheet name="R-Bolivia" sheetId="5" r:id="rId5"/>
-    <sheet name="R-Ecuador" sheetId="6" r:id="rId6"/>
-    <sheet name="R-Nicaragua" sheetId="7" r:id="rId7"/>
-    <sheet name="R-Venezuela" sheetId="8" r:id="rId8"/>
+    <sheet name="Summary" sheetId="9" r:id="rId2"/>
+    <sheet name="Predictor Balance" sheetId="2" r:id="rId3"/>
+    <sheet name="P-vals" sheetId="3" r:id="rId4"/>
+    <sheet name="R-Argentina" sheetId="4" r:id="rId5"/>
+    <sheet name="R-Bolivia" sheetId="5" r:id="rId6"/>
+    <sheet name="R-Ecuador" sheetId="6" r:id="rId7"/>
+    <sheet name="R-Nicaragua" sheetId="7" r:id="rId8"/>
+    <sheet name="R-Venezuela" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="116">
   <si>
     <t xml:space="preserve">       Algeria </t>
   </si>
@@ -389,6 +390,9 @@
   <si>
     <t>(0.192)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Initial </t>
+  </si>
 </sst>
 </file>
 
@@ -538,10 +542,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EBC5A3-B93E-F64F-82A0-F7902F0660E6}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1516,7 +1516,7 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
@@ -1639,7 +1639,7 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>0.57199999999999995</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
@@ -1844,7 +1844,7 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>7.1999999999999995E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="E30" s="5">
         <f>SUMIF($M$2:$M$28,"Latam",E$2:E$28)</f>
-        <v>0.58299999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>27</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E31" s="5">
         <f>SUMIF($M$2:$M$28,"X",E$2:E$28)</f>
-        <v>0.41699999999999998</v>
+        <v>0.40299999999999997</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>27</v>
@@ -2134,6 +2134,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B780A5D-3EEB-634E-8CAC-08A2B82BC362}">
+  <dimension ref="A25:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>2003</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <f>S4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>2006</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>2007</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f>K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2007</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>1999</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3A2B49-ABB3-4542-8FA6-7A4332B1C3EB}">
   <dimension ref="A1:F58"/>
   <sheetViews>
@@ -3182,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE75AE7-18C9-3F42-8003-EF39EC68531B}">
   <dimension ref="A1:F79"/>
   <sheetViews>
@@ -4684,7 +4792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09A252F-46C1-BB4B-9FDE-DBA7A6800B10}">
   <dimension ref="A1:X54"/>
   <sheetViews>
@@ -7023,7 +7131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E09A1A7-B77C-B344-A0C2-DFDA57D1C5E0}">
   <dimension ref="A1:X54"/>
   <sheetViews>
@@ -9383,7 +9491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E61FDF7-097B-5F47-95F6-CB0E8F34DC86}">
   <dimension ref="A1:X56"/>
   <sheetViews>
@@ -11740,7 +11848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3136F6DF-2EA1-E941-AF8C-B6AF9587B227}">
   <dimension ref="A1:X55"/>
   <sheetViews>
@@ -14100,11 +14208,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99506182-649F-8A48-BCB6-994D587ADDB6}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L35"/>
     </sheetView>
   </sheetViews>

--- a/PopulismSCA_Tables_Latex.xlsx
+++ b/PopulismSCA_Tables_Latex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/populism-sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFD41D-8768-5943-B855-D79B8E0E6601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9229D-6BDA-1647-8238-FD992A72FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="-20600" windowWidth="38400" windowHeight="19400" xr2:uid="{4C8A1D19-DDE7-C645-8B0B-3B8FC645842F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="2" xr2:uid="{4C8A1D19-DDE7-C645-8B0B-3B8FC645842F}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="118">
   <si>
     <t xml:space="preserve">       Algeria </t>
   </si>
@@ -179,48 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Synthetic </t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1992)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1995)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1998)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (2000)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (2002)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (2004)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1997)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (2003)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (2006)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1996)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (2001)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1988)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1991)</t>
-  </si>
-  <si>
-    <t>Liberal Democracy Index (1994)</t>
   </si>
   <si>
     <t>V-Dem: Government Attacks on the Judiciary</t>
@@ -392,6 +350,54 @@
   </si>
   <si>
     <t xml:space="preserve">Initial </t>
+  </si>
+  <si>
+    <t>Joint Std. $p$-value</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1994)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1997)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1998)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (2002)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1992)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1995)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (2000)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (2005)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (2003)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (2006)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1996)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (2001)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (2004)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1988)</t>
+  </si>
+  <si>
+    <t>V-Dem: Liberal Democracy Index (1991)</t>
   </si>
 </sst>
 </file>
@@ -841,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EBC5A3-B93E-F64F-82A0-F7902F0660E6}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,8 +906,8 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
+      <c r="E2">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -913,19 +919,19 @@
         <v>27</v>
       </c>
       <c r="I2">
-        <v>0.11899999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
+      <c r="K2">
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -941,8 +947,8 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>35</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -953,20 +959,20 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>35</v>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
-        <v>35</v>
+      <c r="K3">
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -982,8 +988,8 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -994,20 +1000,20 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>35</v>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
-        <v>35</v>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1023,8 +1029,8 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1035,20 +1041,20 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
-        <v>35</v>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
-        <v>35</v>
+      <c r="K5">
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1064,8 +1070,8 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -1076,20 +1082,20 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>35</v>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1105,8 +1111,8 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
+      <c r="E7">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1117,20 +1123,20 @@
       <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
-        <v>35</v>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
-        <v>35</v>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1146,8 +1152,8 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1158,20 +1164,20 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>35</v>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
-        <v>35</v>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1187,8 +1193,8 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -1200,19 +1206,19 @@
         <v>27</v>
       </c>
       <c r="I9">
-        <v>0.88100000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
-        <v>35</v>
+      <c r="K9">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1228,8 +1234,8 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -1240,20 +1246,20 @@
       <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.437</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1269,8 +1275,8 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
@@ -1281,20 +1287,20 @@
       <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="s">
-        <v>35</v>
+      <c r="K11">
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1310,8 +1316,8 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>35</v>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -1322,20 +1328,20 @@
       <c r="H12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="s">
-        <v>35</v>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="K12" t="s">
-        <v>35</v>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1351,8 +1357,8 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -1363,20 +1369,20 @@
       <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
-        <v>35</v>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
-        <v>35</v>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1392,8 +1398,8 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>35</v>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1404,20 +1410,20 @@
       <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
-        <v>35</v>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="K14" t="s">
-        <v>35</v>
+      <c r="K14">
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1434,7 +1440,7 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>0.34499999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -1445,20 +1451,20 @@
       <c r="H15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
-        <v>35</v>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1474,8 +1480,8 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
@@ -1486,20 +1492,20 @@
       <c r="H16" t="s">
         <v>27</v>
       </c>
-      <c r="I16" t="s">
-        <v>35</v>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
       </c>
-      <c r="K16" t="s">
-        <v>35</v>
+      <c r="K16">
+        <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1516,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
@@ -1527,20 +1533,20 @@
       <c r="H17" t="s">
         <v>27</v>
       </c>
-      <c r="I17" t="s">
-        <v>35</v>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
       </c>
-      <c r="K17" t="s">
-        <v>35</v>
+      <c r="K17">
+        <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1556,8 +1562,8 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
@@ -1568,20 +1574,20 @@
       <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="I18" t="s">
-        <v>35</v>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
       </c>
-      <c r="K18" t="s">
-        <v>35</v>
+      <c r="K18">
+        <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1597,8 +1603,8 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
-        <v>35</v>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
@@ -1609,20 +1615,20 @@
       <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" t="s">
-        <v>35</v>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.28399999999999997</v>
+        <v>0.251</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1639,7 +1645,7 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>0.57899999999999996</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
@@ -1650,20 +1656,20 @@
       <c r="H20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" t="s">
-        <v>35</v>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
       </c>
-      <c r="K20" t="s">
-        <v>35</v>
+      <c r="K20">
+        <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1679,8 +1685,8 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
-        <v>35</v>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -1691,20 +1697,20 @@
       <c r="H21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" t="s">
-        <v>35</v>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
       </c>
-      <c r="K21" t="s">
-        <v>35</v>
+      <c r="K21">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1720,8 +1726,8 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
-        <v>35</v>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -1732,20 +1738,20 @@
       <c r="H22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
-        <v>35</v>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
       </c>
-      <c r="K22" t="s">
-        <v>35</v>
+      <c r="K22">
+        <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1761,8 +1767,8 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
-        <v>35</v>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
@@ -1773,20 +1779,20 @@
       <c r="H23" t="s">
         <v>27</v>
       </c>
-      <c r="I23" t="s">
-        <v>35</v>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
-        <v>35</v>
+      <c r="K23">
+        <v>2.4E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1802,8 +1808,8 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
-        <v>35</v>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -1814,20 +1820,20 @@
       <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
-        <v>35</v>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
       </c>
-      <c r="K24" t="s">
-        <v>35</v>
+      <c r="K24">
+        <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1844,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>5.8000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
@@ -1855,20 +1861,20 @@
       <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="I25" t="s">
-        <v>35</v>
+      <c r="I25">
+        <v>0.20899999999999999</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="K25" t="s">
-        <v>35</v>
+      <c r="K25">
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1884,8 +1890,8 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
-        <v>35</v>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -1896,20 +1902,20 @@
       <c r="H26" t="s">
         <v>27</v>
       </c>
-      <c r="I26" t="s">
-        <v>35</v>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="K26" t="s">
-        <v>35</v>
+      <c r="K26">
+        <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1925,8 +1931,8 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
-        <v>35</v>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -1937,20 +1943,20 @@
       <c r="H27" t="s">
         <v>27</v>
       </c>
-      <c r="I27" t="s">
-        <v>35</v>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="K27" t="s">
-        <v>35</v>
+      <c r="K27">
+        <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1966,8 +1972,8 @@
       <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
-        <v>35</v>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>27</v>
@@ -1978,30 +1984,30 @@
       <c r="H28" t="s">
         <v>27</v>
       </c>
-      <c r="I28" t="s">
-        <v>35</v>
+      <c r="I28">
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
       </c>
-      <c r="K28" t="s">
-        <v>35</v>
+      <c r="K28">
+        <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -2015,7 +2021,7 @@
       </c>
       <c r="E30" s="5">
         <f>SUMIF($M$2:$M$28,"Latam",E$2:E$28)</f>
-        <v>0.59699999999999998</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>27</v>
@@ -2029,14 +2035,14 @@
       </c>
       <c r="I30" s="5">
         <f>SUMIF($M$2:$M$28,"Latam",I$2:I$28)</f>
-        <v>0.88100000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K30" s="5">
         <f>SUMIF($M$2:$M$28,"Latam",K$2:K$28)</f>
-        <v>0.437</v>
+        <v>0.72600000000000009</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>34</v>
@@ -2044,7 +2050,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -2058,7 +2064,7 @@
       </c>
       <c r="E31" s="5">
         <f>SUMIF($M$2:$M$28,"X",E$2:E$28)</f>
-        <v>0.40299999999999997</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>27</v>
@@ -2072,14 +2078,14 @@
       </c>
       <c r="I31" s="5">
         <f>SUMIF($M$2:$M$28,"X",I$2:I$28)</f>
-        <v>0.11899999999999999</v>
+        <v>0.34099999999999997</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K31" s="5">
         <f>SUMIF($M$2:$M$28,"X",K$2:K$28)</f>
-        <v>0.56299999999999994</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>34</v>
@@ -2087,24 +2093,24 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="E33">
-        <v>0.78100000000000003</v>
+      <c r="E33" s="5">
+        <v>0.7265876</v>
       </c>
       <c r="F33" t="s">
         <v>27</v>
@@ -2116,16 +2122,36 @@
         <v>27</v>
       </c>
       <c r="I33">
-        <v>2.319</v>
+        <v>1.718</v>
       </c>
       <c r="J33" t="s">
         <v>27</v>
       </c>
-      <c r="K33">
-        <v>1.099</v>
+      <c r="K33" s="5">
+        <v>1.6214999999999999</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2145,13 +2171,13 @@
   <sheetData>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2243,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3A2B49-ABB3-4542-8FA6-7A4332B1C3EB}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2404,7 +2430,7 @@
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -2424,7 +2450,7 @@
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -2444,7 +2470,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -2464,7 +2490,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -2492,19 +2518,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5">
-        <v>31.638459999999998</v>
+        <v>31.55714</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="5">
-        <v>23.76163</v>
+        <v>24.35435</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
@@ -2512,19 +2538,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>8.8461540000000003</v>
+        <v>8.7857140000000005</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="5">
-        <v>8.2052309999999995</v>
+        <v>8.0350000000000001</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -2532,19 +2558,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5">
-        <v>74.046149999999997</v>
+        <v>74.142859999999999</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="5">
-        <v>63.92859</v>
+        <v>63.821919999999999</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -2552,19 +2578,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="5">
-        <v>2.6025640000000001</v>
+        <v>2.5595240000000001</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="5">
-        <v>2.338228</v>
+        <v>2.49614</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
@@ -2572,7 +2598,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
@@ -2584,7 +2610,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="5">
-        <v>47.7226</v>
+        <v>47.582799999999999</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -2592,7 +2618,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>27</v>
@@ -2604,7 +2630,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="5">
-        <v>50.429099999999998</v>
+        <v>50.386499999999998</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>34</v>
@@ -2612,7 +2638,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>27</v>
@@ -2624,7 +2650,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="5">
-        <v>52.023600000000002</v>
+        <v>52.073700000000002</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
@@ -2632,7 +2658,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -2644,7 +2670,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="5">
-        <v>52.389899999999997</v>
+        <v>52.339799999999997</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>34</v>
@@ -2652,7 +2678,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>27</v>
@@ -2664,7 +2690,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="5">
-        <v>52.354100000000003</v>
+        <v>52.260800000000003</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>34</v>
@@ -2672,19 +2698,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="5">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="5">
-        <v>54.634700000000002</v>
+        <v>54.195900000000002</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>34</v>
@@ -2712,7 +2738,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>27</v>
@@ -2732,7 +2758,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>27</v>
@@ -2752,7 +2778,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>27</v>
@@ -2772,7 +2798,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>27</v>
@@ -2792,7 +2818,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>27</v>
@@ -2812,7 +2838,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>27</v>
@@ -2832,7 +2858,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>27</v>
@@ -2852,7 +2878,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>27</v>
@@ -2892,13 +2918,13 @@
         <v>27</v>
       </c>
       <c r="C38" s="5">
-        <v>87.69</v>
+        <v>87.13</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="5">
-        <v>72.786680000000004</v>
+        <v>71.775940000000006</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>34</v>
@@ -2906,19 +2932,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="5">
-        <v>-6.26</v>
+        <v>-9.99</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="5">
-        <v>-59.260649999999998</v>
+        <v>-52.793750000000003</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
@@ -2932,13 +2958,13 @@
         <v>27</v>
       </c>
       <c r="C40" s="5">
-        <v>-1.8530899999999999E-2</v>
+        <v>-5.3920700000000002E-2</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="5">
-        <v>-0.47162209999999999</v>
+        <v>-0.3399278</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
@@ -2946,7 +2972,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>27</v>
@@ -2958,7 +2984,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="5">
-        <v>5.9290000000000003</v>
+        <v>6.0034000000000001</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
@@ -2966,19 +2992,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="5">
-        <v>-0.64913920000000003</v>
+        <v>-0.66470490000000004</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="5">
-        <v>-0.36625649999999998</v>
+        <v>-0.32752969999999998</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>34</v>
@@ -2986,19 +3012,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="5">
-        <v>45.8</v>
+        <v>41.3</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="5">
-        <v>39.939399999999999</v>
+        <v>37.886099999999999</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>34</v>
@@ -3006,7 +3032,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>27</v>
@@ -3018,7 +3044,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="5">
-        <v>39.106000000000002</v>
+        <v>38.726199999999999</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>34</v>
@@ -3026,7 +3052,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>27</v>
@@ -3038,7 +3064,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="5">
-        <v>38.841700000000003</v>
+        <v>38.486699999999999</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -3046,7 +3072,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>27</v>
@@ -3058,61 +3084,55 @@
         <v>27</v>
       </c>
       <c r="E46" s="5">
-        <v>39.405999999999999</v>
+        <v>38.545499999999997</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="20" t="s">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>33.1</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="5">
+        <v>35.255600000000001</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="5">
-        <v>-9.3646300000000002E-2</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0.47314040000000002</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="5">
-        <v>89.644440000000003</v>
+        <v>1.06699E-2</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="5">
-        <v>85.502600000000001</v>
+        <v>0.3188281</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -3120,19 +3140,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="5">
-        <v>-43.544440000000002</v>
+        <v>89.542109999999994</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="5">
-        <v>38.695079999999997</v>
+        <v>85.413790000000006</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -3140,19 +3160,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="5">
-        <v>8.6666670000000003</v>
+        <v>-44.384210000000003</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="5">
-        <v>6.5328889999999999</v>
+        <v>2.8332929999999998</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -3160,19 +3180,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="5">
-        <v>5.6902850000000003</v>
+        <v>8.6315790000000003</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="5">
-        <v>5.9664640000000002</v>
+        <v>6.2668419999999996</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -3180,19 +3200,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="5">
-        <v>2.9583330000000001</v>
+        <v>5.6902850000000003</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="5">
-        <v>3.4062619999999999</v>
+        <v>5.5408439999999999</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>34</v>
@@ -3200,19 +3220,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="5">
-        <v>59.1</v>
+        <v>2.9611109999999998</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="5">
-        <v>58.286000000000001</v>
+        <v>3.970189</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -3220,19 +3240,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="5">
-        <v>62.6</v>
+        <v>59.1</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="5">
-        <v>59.862200000000001</v>
+        <v>57.872199999999999</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -3240,19 +3260,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C57" s="5">
-        <v>60.7</v>
+        <v>62.6</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E57" s="5">
-        <v>60.314300000000003</v>
+        <v>60.3001</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>34</v>
@@ -3260,21 +3280,41 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C58" s="5">
-        <v>60.9</v>
+        <v>60.7</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="5">
-        <v>61.023899999999998</v>
+        <v>59.4343</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="5">
+        <v>58.7</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="5">
+        <v>59.831299999999999</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3284,8 +3324,11 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F47" r:id="rId1" xr:uid="{0DB6EDE0-8B10-9444-AD99-35A4A1EC5CCB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3294,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE75AE7-18C9-3F42-8003-EF39EC68531B}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3314,19 +3357,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
@@ -3571,19 +3614,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -3591,19 +3634,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5">
-        <v>-0.52610040000000002</v>
+        <v>-6.1534000000000004</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="5">
-        <v>0.77777779999999996</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -3611,19 +3654,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="5">
-        <v>-7.0324010000000001</v>
+        <v>-7.4712009999999998</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
@@ -3631,19 +3674,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="5">
-        <v>-8.4124009999999991</v>
+        <v>-11.263999999999999</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -3651,13 +3694,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="5">
-        <v>-12.103</v>
+        <v>-13.693300000000001</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -3671,13 +3714,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="5">
-        <v>-14.6274</v>
+        <v>-16.553000000000001</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -3691,13 +3734,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="5">
-        <v>-17.5303</v>
+        <v>-17.1966</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -3711,13 +3754,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="5">
-        <v>-18.177700000000002</v>
+        <v>-17.409800000000001</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -3731,13 +3774,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="5">
-        <v>-18.278700000000001</v>
+        <v>-13.010300000000001</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -3751,13 +3794,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5">
-        <v>-13.4313</v>
+        <v>-12.142200000000001</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -3771,19 +3814,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="5">
-        <v>-13.1181</v>
+        <v>-13.979799999999999</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="5">
-        <v>7.4074100000000004E-2</v>
+        <v>3.7037E-2</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>34</v>
@@ -3791,13 +3834,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5">
-        <v>-14.9468</v>
+        <v>-14.3332</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -3828,19 +3871,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>34</v>
@@ -4085,19 +4128,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>34</v>
@@ -4111,13 +4154,13 @@
         <v>27</v>
       </c>
       <c r="C45" s="5">
-        <v>-7.8672009999999997</v>
+        <v>-13.731299999999999</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="5">
-        <v>0.1481481</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -4131,7 +4174,7 @@
         <v>27</v>
       </c>
       <c r="C46" s="5">
-        <v>-19.426400000000001</v>
+        <v>-18.8202</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -4151,13 +4194,13 @@
         <v>27</v>
       </c>
       <c r="C47" s="5">
-        <v>-21.236799999999999</v>
+        <v>-19.644300000000001</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -4171,13 +4214,13 @@
         <v>27</v>
       </c>
       <c r="C48" s="5">
-        <v>-22.123999999999999</v>
+        <v>-22.217700000000001</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
@@ -4191,13 +4234,13 @@
         <v>27</v>
       </c>
       <c r="C49" s="5">
-        <v>-25.588799999999999</v>
+        <v>-26.167899999999999</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -4211,13 +4254,13 @@
         <v>27</v>
       </c>
       <c r="C50" s="5">
-        <v>-29.428000000000001</v>
+        <v>-30.1981</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -4231,13 +4274,13 @@
         <v>27</v>
       </c>
       <c r="C51" s="5">
-        <v>-32.915199999999999</v>
+        <v>-32.144100000000002</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -4251,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="5">
-        <v>-36.115200000000002</v>
+        <v>-27.723500000000001</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -4271,7 +4314,7 @@
         <v>27</v>
       </c>
       <c r="C53" s="5">
-        <v>-36.8384</v>
+        <v>-27.6859</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
@@ -4291,13 +4334,13 @@
         <v>27</v>
       </c>
       <c r="C54" s="5">
-        <v>-37.051200000000001</v>
+        <v>-28.088000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="5">
-        <v>3.7037E-2</v>
+        <v>0.1111111</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>34</v>
@@ -4311,13 +4354,13 @@
         <v>27</v>
       </c>
       <c r="C55" s="5">
-        <v>-37.436</v>
+        <v>-29.585699999999999</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="5">
-        <v>3.7037E-2</v>
+        <v>0.1111111</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -4342,19 +4385,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
@@ -4367,14 +4410,14 @@
       <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="5">
-        <v>-2.343099</v>
+      <c r="C59">
+        <v>-18.1374</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59" s="5">
-        <v>3.7037E-2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
@@ -4387,8 +4430,8 @@
       <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="5">
-        <v>-18.4085</v>
+      <c r="C60">
+        <v>-34.554499999999997</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -4407,8 +4450,8 @@
       <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="5">
-        <v>-34.973599999999998</v>
+      <c r="C61">
+        <v>-38.983800000000002</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
@@ -4427,8 +4470,8 @@
       <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="5">
-        <v>-40.479500000000002</v>
+      <c r="C62">
+        <v>-42.851300000000002</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -4447,8 +4490,8 @@
       <c r="B63" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="5">
-        <v>-44.1768</v>
+      <c r="C63">
+        <v>-43.116100000000003</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
@@ -4467,8 +4510,8 @@
       <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="5">
-        <v>-44.613700000000001</v>
+      <c r="C64">
+        <v>-45.568899999999999</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
@@ -4487,8 +4530,8 @@
       <c r="B65" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="5">
-        <v>-47.205199999999998</v>
+      <c r="C65">
+        <v>-49.195999999999998</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -4507,8 +4550,8 @@
       <c r="B66" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="5">
-        <v>-51.081899999999997</v>
+      <c r="C66">
+        <v>-50.795400000000001</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -4527,8 +4570,8 @@
       <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="5">
-        <v>-52.288899999999998</v>
+      <c r="C67">
+        <v>-51.327599999999997</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -4547,8 +4590,8 @@
       <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="5">
-        <v>-52.701300000000003</v>
+      <c r="C68">
+        <v>-51.864800000000002</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
@@ -4567,8 +4610,8 @@
       <c r="B69" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="5">
-        <v>-53.663200000000003</v>
+      <c r="C69">
+        <v>-52.021900000000002</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
@@ -4581,204 +4624,54 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>2009</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="5">
-        <v>-53.691200000000002</v>
-      </c>
-      <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2010</v>
-      </c>
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="5">
-        <v>-54.878599999999999</v>
-      </c>
-      <c r="D71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2011</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="5">
-        <v>-56.324399999999997</v>
-      </c>
-      <c r="D72" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2012</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="5">
-        <v>-56.9572</v>
-      </c>
-      <c r="D73" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2013</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="5">
-        <v>-59.969900000000003</v>
-      </c>
-      <c r="D74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2014</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="5">
-        <v>-60.530299999999997</v>
-      </c>
-      <c r="D75" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2015</v>
-      </c>
-      <c r="B76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="5">
-        <v>-60.201099999999997</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2016</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="5">
-        <v>-58.508099999999999</v>
-      </c>
-      <c r="D77" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>2017</v>
-      </c>
-      <c r="B78" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="5">
-        <v>-61.7958</v>
-      </c>
-      <c r="D78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>2018</v>
-      </c>
-      <c r="B79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="5">
-        <v>-63.2742</v>
-      </c>
-      <c r="D79" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="5">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4812,31 +4705,31 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>34</v>
@@ -4850,7 +4743,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
@@ -4862,19 +4755,19 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>34</v>
@@ -4882,7 +4775,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4917,13 +4810,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4952,19 +4845,19 @@
         <v>27</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4993,19 +4886,19 @@
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -5034,19 +4927,19 @@
         <v>27</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -5063,7 +4956,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>27</v>
@@ -5087,7 +4980,7 @@
         <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5116,19 +5009,19 @@
         <v>27</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -5169,7 +5062,7 @@
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5210,7 +5103,7 @@
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -5251,7 +5144,7 @@
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5280,19 +5173,19 @@
         <v>27</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -5309,7 +5202,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>27</v>
@@ -5321,19 +5214,19 @@
         <v>27</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -5362,19 +5255,19 @@
         <v>27</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -5415,7 +5308,7 @@
         <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -5444,19 +5337,19 @@
         <v>27</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -5485,19 +5378,19 @@
         <v>27</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -5538,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -5567,19 +5460,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -5614,13 +5507,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -5661,7 +5554,7 @@
         <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -5702,7 +5595,7 @@
         <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -5731,19 +5624,19 @@
         <v>27</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -5772,19 +5665,19 @@
         <v>27</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -5813,19 +5706,19 @@
         <v>27</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -5860,13 +5753,13 @@
         <v>27</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -5901,13 +5794,13 @@
         <v>27</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -5936,19 +5829,19 @@
         <v>27</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -5989,17 +5882,17 @@
         <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -6042,7 +5935,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -6085,18 +5978,18 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
@@ -6128,19 +6021,19 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N36" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" t="s">
+        <v>57</v>
+      </c>
+      <c r="R36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" t="s">
+        <v>75</v>
+      </c>
+      <c r="V36" t="s">
         <v>70</v>
-      </c>
-      <c r="P36" t="s">
-        <v>71</v>
-      </c>
-      <c r="R36" t="s">
-        <v>72</v>
-      </c>
-      <c r="T36" t="s">
-        <v>89</v>
-      </c>
-      <c r="V36" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
@@ -6148,31 +6041,31 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>34</v>
@@ -6182,13 +6075,13 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>27</v>
@@ -6200,19 +6093,19 @@
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>34</v>
@@ -6221,7 +6114,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L40" s="1"/>
       <c r="W40" s="1"/>
@@ -6267,37 +6160,37 @@
         <v>27</v>
       </c>
       <c r="N41" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X41" t="s">
         <v>92</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T41" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X41" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -6341,37 +6234,37 @@
         <v>27</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X42" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -6415,37 +6308,37 @@
         <v>27</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X43" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -6489,37 +6382,37 @@
         <v>27</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X44" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -6563,37 +6456,37 @@
         <v>27</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R45" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V45" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X45" t="s">
         <v>92</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T45" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V45" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -6637,37 +6530,37 @@
         <v>27</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X46" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -6711,37 +6604,37 @@
         <v>27</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X47" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -6785,37 +6678,37 @@
         <v>27</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X48" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -6859,37 +6752,37 @@
         <v>27</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X49" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -6933,37 +6826,37 @@
         <v>27</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X50" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -7007,47 +6900,47 @@
         <v>27</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R51" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V51" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X51" t="s">
         <v>92</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X51" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -7090,37 +6983,37 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>34</v>
@@ -7150,31 +7043,31 @@
         <v>27</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>34</v>
@@ -7189,7 +7082,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>27</v>
@@ -7201,19 +7094,19 @@
         <v>27</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -7222,7 +7115,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7269,13 +7162,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -7304,19 +7197,19 @@
         <v>27</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -7345,19 +7238,19 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -7386,19 +7279,19 @@
         <v>27</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -7439,7 +7332,7 @@
         <v>34</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -7468,19 +7361,19 @@
         <v>27</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -7521,7 +7414,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -7562,7 +7455,7 @@
         <v>34</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -7603,7 +7496,7 @@
         <v>34</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -7632,19 +7525,19 @@
         <v>27</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -7673,19 +7566,19 @@
         <v>27</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -7714,19 +7607,19 @@
         <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -7767,7 +7660,7 @@
         <v>34</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -7796,19 +7689,19 @@
         <v>27</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -7837,19 +7730,19 @@
         <v>27</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -7890,7 +7783,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -7919,19 +7812,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -7966,13 +7859,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -7989,7 +7882,7 @@
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>27</v>
@@ -8013,7 +7906,7 @@
         <v>34</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -8054,7 +7947,7 @@
         <v>34</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -8083,19 +7976,19 @@
         <v>27</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -8124,19 +8017,19 @@
         <v>27</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -8165,19 +8058,19 @@
         <v>27</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -8212,13 +8105,13 @@
         <v>27</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -8253,13 +8146,13 @@
         <v>27</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -8288,19 +8181,19 @@
         <v>27</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -8341,12 +8234,12 @@
         <v>34</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
@@ -8362,7 +8255,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -8406,7 +8299,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -8450,7 +8343,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
@@ -8466,7 +8359,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>27</v>
@@ -8508,31 +8401,31 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>34</v>
@@ -8542,13 +8435,13 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>27</v>
@@ -8560,19 +8453,19 @@
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>34</v>
@@ -8581,7 +8474,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L40" s="1"/>
       <c r="W40" s="1"/>
@@ -8627,37 +8520,37 @@
         <v>27</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V41" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X41" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -8701,37 +8594,37 @@
         <v>27</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R42" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X42" t="s">
         <v>92</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T42" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V42" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X42" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -8775,37 +8668,37 @@
         <v>27</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X43" t="s">
         <v>92</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T43" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V43" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -8849,37 +8742,37 @@
         <v>27</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R44" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X44" t="s">
         <v>92</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X44" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -8923,37 +8816,37 @@
         <v>27</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R45" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V45" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X45" t="s">
         <v>92</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T45" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V45" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -8997,37 +8890,37 @@
         <v>27</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R46" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V46" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X46" t="s">
         <v>92</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X46" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -9071,37 +8964,37 @@
         <v>27</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R47" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V47" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X47" t="s">
         <v>92</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X47" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -9145,37 +9038,37 @@
         <v>27</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R48" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V48" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X48" t="s">
         <v>92</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T48" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V48" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X48" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -9219,37 +9112,37 @@
         <v>27</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R49" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V49" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X49" t="s">
         <v>92</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T49" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V49" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X49" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -9293,37 +9186,37 @@
         <v>27</v>
       </c>
       <c r="N50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V50" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X50" t="s">
         <v>92</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R50" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X50" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -9367,47 +9260,47 @@
         <v>27</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R51" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V51" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X51" t="s">
         <v>92</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X51" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -9450,37 +9343,37 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>34</v>
@@ -9510,31 +9403,31 @@
         <v>27</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>34</v>
@@ -9549,7 +9442,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>27</v>
@@ -9561,19 +9454,19 @@
         <v>27</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -9582,7 +9475,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -9629,13 +9522,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -9664,19 +9557,19 @@
         <v>27</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -9705,19 +9598,19 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -9746,19 +9639,19 @@
         <v>27</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -9799,7 +9692,7 @@
         <v>34</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -9828,19 +9721,19 @@
         <v>27</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -9881,7 +9774,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -9922,7 +9815,7 @@
         <v>34</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -9963,7 +9856,7 @@
         <v>34</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -9989,19 +9882,19 @@
         <v>27</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10030,19 +9923,19 @@
         <v>27</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10071,19 +9964,19 @@
         <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10124,7 +10017,7 @@
         <v>34</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -10153,19 +10046,19 @@
         <v>27</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -10194,19 +10087,19 @@
         <v>27</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -10247,7 +10140,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -10276,19 +10169,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -10323,13 +10216,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -10370,7 +10263,7 @@
         <v>34</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -10411,7 +10304,7 @@
         <v>34</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -10440,19 +10333,19 @@
         <v>27</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -10481,19 +10374,19 @@
         <v>27</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -10522,19 +10415,19 @@
         <v>27</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -10569,13 +10462,13 @@
         <v>27</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -10610,13 +10503,13 @@
         <v>27</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -10645,19 +10538,19 @@
         <v>27</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -10698,12 +10591,12 @@
         <v>34</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
@@ -10719,7 +10612,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -10763,7 +10656,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -10807,7 +10700,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
@@ -10823,7 +10716,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>27</v>
@@ -10865,31 +10758,31 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>34</v>
@@ -10899,13 +10792,13 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>27</v>
@@ -10917,19 +10810,19 @@
         <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>34</v>
@@ -10938,7 +10831,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L42" s="1"/>
       <c r="W42" s="1"/>
@@ -10984,37 +10877,37 @@
         <v>27</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X43" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -11058,37 +10951,37 @@
         <v>27</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X44" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -11132,37 +11025,37 @@
         <v>27</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X45" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -11206,37 +11099,37 @@
         <v>27</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X46" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -11280,37 +11173,37 @@
         <v>27</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X47" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -11354,37 +11247,37 @@
         <v>27</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X48" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -11428,37 +11321,37 @@
         <v>27</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X49" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -11502,37 +11395,37 @@
         <v>27</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X50" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -11576,37 +11469,37 @@
         <v>27</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X51" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -11650,37 +11543,37 @@
         <v>27</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X52" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -11724,47 +11617,47 @@
         <v>27</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X53" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -11807,37 +11700,37 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>34</v>
@@ -11867,31 +11760,31 @@
         <v>27</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>34</v>
@@ -11906,7 +11799,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>27</v>
@@ -11918,19 +11811,19 @@
         <v>27</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -11939,7 +11832,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -11986,13 +11879,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -12021,19 +11914,19 @@
         <v>27</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -12062,19 +11955,19 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12103,19 +11996,19 @@
         <v>27</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -12156,7 +12049,7 @@
         <v>34</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -12185,19 +12078,19 @@
         <v>27</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -12238,7 +12131,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12255,7 +12148,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>27</v>
@@ -12279,7 +12172,7 @@
         <v>34</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12320,7 +12213,7 @@
         <v>34</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -12349,19 +12242,19 @@
         <v>27</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -12390,19 +12283,19 @@
         <v>27</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -12431,19 +12324,19 @@
         <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -12484,7 +12377,7 @@
         <v>34</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -12513,19 +12406,19 @@
         <v>27</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -12554,19 +12447,19 @@
         <v>27</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -12607,7 +12500,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -12636,19 +12529,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -12683,13 +12576,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -12730,7 +12623,7 @@
         <v>34</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -12771,7 +12664,7 @@
         <v>34</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -12800,19 +12693,19 @@
         <v>27</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -12841,19 +12734,19 @@
         <v>27</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -12882,19 +12775,19 @@
         <v>27</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -12929,13 +12822,13 @@
         <v>27</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -12970,13 +12863,13 @@
         <v>27</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -13005,19 +12898,19 @@
         <v>27</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -13058,12 +12951,12 @@
         <v>34</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
@@ -13079,7 +12972,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -13123,7 +13016,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -13167,7 +13060,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
@@ -13183,7 +13076,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>27</v>
@@ -13225,31 +13118,31 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>34</v>
@@ -13259,13 +13152,13 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>27</v>
@@ -13277,19 +13170,19 @@
         <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>34</v>
@@ -13298,7 +13191,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L41" s="1"/>
       <c r="W41" s="1"/>
@@ -13344,37 +13237,37 @@
         <v>27</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X42" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -13418,37 +13311,37 @@
         <v>27</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X43" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -13492,37 +13385,37 @@
         <v>27</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X44" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -13566,37 +13459,37 @@
         <v>27</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X45" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -13640,37 +13533,37 @@
         <v>27</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X46" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -13714,37 +13607,37 @@
         <v>27</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X47" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -13788,37 +13681,37 @@
         <v>27</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X48" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -13862,37 +13755,37 @@
         <v>27</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X49" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -13936,37 +13829,37 @@
         <v>27</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X50" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -14010,37 +13903,37 @@
         <v>27</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X51" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -14084,47 +13977,47 @@
         <v>27</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="S52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X52" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
@@ -14167,37 +14060,37 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>34</v>
@@ -14227,31 +14120,31 @@
         <v>27</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>34</v>
@@ -14266,7 +14159,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>27</v>
@@ -14278,19 +14171,19 @@
         <v>27</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -14299,7 +14192,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -14346,13 +14239,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -14381,19 +14274,19 @@
         <v>27</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -14422,19 +14315,19 @@
         <v>27</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -14463,19 +14356,19 @@
         <v>27</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -14516,7 +14409,7 @@
         <v>34</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -14545,19 +14438,19 @@
         <v>27</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -14598,7 +14491,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -14639,7 +14532,7 @@
         <v>34</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -14656,7 +14549,7 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>27</v>
@@ -14680,7 +14573,7 @@
         <v>34</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -14709,19 +14602,19 @@
         <v>27</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -14750,19 +14643,19 @@
         <v>27</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -14791,19 +14684,19 @@
         <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -14844,7 +14737,7 @@
         <v>34</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -14873,19 +14766,19 @@
         <v>27</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -14914,19 +14807,19 @@
         <v>27</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -14967,7 +14860,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -14996,19 +14889,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -15043,13 +14936,13 @@
         <v>27</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -15090,7 +14983,7 @@
         <v>34</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -15131,7 +15024,7 @@
         <v>34</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -15160,19 +15053,19 @@
         <v>27</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -15201,19 +15094,19 @@
         <v>27</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -15242,19 +15135,19 @@
         <v>27</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -15289,13 +15182,13 @@
         <v>27</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -15330,13 +15223,13 @@
         <v>27</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -15365,19 +15258,19 @@
         <v>27</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -15418,12 +15311,12 @@
         <v>34</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B31" s="12"/>
       <c r="D31" s="12"/>
@@ -15439,7 +15332,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -15483,7 +15376,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -15527,7 +15420,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B34" s="12"/>
       <c r="D34" s="12"/>
@@ -15543,7 +15436,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>27</v>
@@ -15585,31 +15478,31 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>34</v>
@@ -15619,13 +15512,13 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>27</v>
@@ -15637,19 +15530,19 @@
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>34</v>
@@ -15658,7 +15551,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L40" s="1"/>
       <c r="W40" s="1"/>
@@ -15704,37 +15597,37 @@
         <v>27</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X41" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -15778,37 +15671,37 @@
         <v>27</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X42" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -15852,37 +15745,37 @@
         <v>27</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X43" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -15926,37 +15819,37 @@
         <v>27</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X44" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -16000,37 +15893,37 @@
         <v>27</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X45" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
@@ -16074,37 +15967,37 @@
         <v>27</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X46" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -16148,37 +16041,37 @@
         <v>27</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X47" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -16222,37 +16115,37 @@
         <v>27</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X48" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -16296,37 +16189,37 @@
         <v>27</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X49" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -16370,37 +16263,37 @@
         <v>27</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X50" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -16444,47 +16337,47 @@
         <v>27</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X51" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -16527,37 +16420,37 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>34</v>

--- a/PopulismSCA_Tables_Latex.xlsx
+++ b/PopulismSCA_Tables_Latex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/populism-sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923DB8B4-8FDF-5B4B-BEAB-5894510C96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93040514-182D-7943-AF62-4C0770A924A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="1" activeTab="2" xr2:uid="{4C8A1D19-DDE7-C645-8B0B-3B8FC645842F}"/>
   </bookViews>
@@ -4336,7 +4336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3A2B49-ABB3-4542-8FA6-7A4332B1C3EB}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G58"/>
     </sheetView>
   </sheetViews>
